--- a/Age Adjustment Deaths.xlsx
+++ b/Age Adjustment Deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt_\GitHub\covid-wisconsin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB246D1-AC6F-45C6-9717-92425A7E453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921ACAB-E99D-4231-A5B2-3FF75A126C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="27720" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="360" windowWidth="22785" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -256,6 +256,4530 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of vaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17846194225721784"/>
+                  <c:y val="-6.4425853018372697E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21483278652668417"/>
+                  <c:y val="4.5971857684456108E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19623982939632545"/>
+                  <c:y val="0.16462962962962963"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9846237970253716E-2"/>
+                  <c:y val="0.12523111694371536"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.8188357095480046E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3047492354004913E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0747877015358351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9121193889162958E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1190987527708585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1340521623954167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14025969804710128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18970227597225942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28396072872012829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-2038-4759-80A0-A43552B6E634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of vaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002E-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000030-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000032-2038-4759-80A0-A43552B6E634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25346205161854768"/>
+                  <c:y val="-5.6046223388743072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21205249343832022"/>
+                  <c:y val="4.7407042869641293E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15909864391950995"/>
+                  <c:y val="0.15101851851851852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-2038-4759-80A0-A43552B6E634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.8188357095480046E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3047492354004913E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0747877015358351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9121193889162958E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1190987527708585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1340521623954167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14025969804710128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18970227597225942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28396072872012829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-2038-4759-80A0-A43552B6E634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of unvaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28673193845643336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9288622540761749E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0076052823930336E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10888565655382657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13575214705707045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11054690481842167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10490019439323482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1578140538256969E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2240342818064023E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-E708-45D8-A484-7C5D05EE1BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of unvaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-E708-45D8-A484-7C5D05EE1BEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-E708-45D8-A484-7C5D05EE1BEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28673193845643336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9288622540761749E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0076052823930336E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10888565655382657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13575214705707045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11054690481842167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10490019439323482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1578140538256969E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2240342818064023E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-E708-45D8-A484-7C5D05EE1BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of vaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9FE1-4216-B883-0806421D375A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25346205161854768"/>
+                  <c:y val="-5.6046223388743072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21205249343832022"/>
+                  <c:y val="4.7407042869641293E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15909864391950995"/>
+                  <c:y val="0.15101851851851852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9FE1-4216-B883-0806421D375A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.8188357095480046E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3047492354004913E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0747877015358351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9121193889162958E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1190987527708585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1340521623954167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14025969804710128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18970227597225942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28396072872012829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-9FE1-4216-B883-0806421D375A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% of vaxed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0CE9-4A1A-96D8-187233B70491}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25346205161854768"/>
+                  <c:y val="-5.6046223388743072E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21205249343832022"/>
+                  <c:y val="4.7407042869641293E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15909864391950995"/>
+                  <c:y val="0.15101851851851852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-0CE9-4A1A-96D8-187233B70491}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25-34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.8188357095480046E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3047492354004913E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0747877015358351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9121193889162958E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1190987527708585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1340521623954167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14025969804710128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18970227597225942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28396072872012829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-0CE9-4A1A-96D8-187233B70491}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CAC9BA-F846-4109-BB54-33810D489C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4921E218-57F5-4968-9A84-0445418791C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A05291B-F2C1-48C9-9AA4-3B6FD0F148CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37498357-81E1-4FDC-B663-A4F7C876A411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,7 +5082,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,7 +5173,7 @@
         <v>0.14128833405410865</v>
       </c>
       <c r="G2">
-        <f>B2*E2</f>
+        <f t="shared" ref="G2:G10" si="0">B2*E2</f>
         <v>28.999999999999996</v>
       </c>
       <c r="H2">
@@ -657,7 +5181,7 @@
         <v>9.8188357095480046E-6</v>
       </c>
       <c r="I2">
-        <f>(1-B2)*E2</f>
+        <f t="shared" ref="I2:I10" si="1">(1-B2)*E2</f>
         <v>822613</v>
       </c>
       <c r="J2">
@@ -665,11 +5189,11 @@
         <v>0.28673193845643336</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" si="0">C2*$G2/100000</f>
+        <f t="shared" ref="K2:K9" si="2">C2*$G2/100000</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L9" si="1">D2*$I2/100000</f>
+        <f t="shared" ref="L2:L9" si="3">D2*$I2/100000</f>
         <v>0</v>
       </c>
       <c r="N2">
@@ -702,43 +5226,43 @@
         <v>296390</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="2">E3/$E$11</f>
+        <f t="shared" ref="F3:F11" si="4">E3/$E$11</f>
         <v>5.0904827774775979E-2</v>
       </c>
       <c r="G3">
-        <f>B3*E3</f>
+        <f t="shared" si="0"/>
         <v>97606</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="3">G3/G$11</f>
+        <f t="shared" ref="H3:H11" si="5">G3/G$11</f>
         <v>3.3047492354004913E-2</v>
       </c>
       <c r="I3">
-        <f>(1-B3)*E3</f>
+        <f t="shared" si="1"/>
         <v>198784</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="4">I3/I$11</f>
+        <f t="shared" ref="J3:J11" si="6">I3/I$11</f>
         <v>6.9288622540761749E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="5">I3/I$11</f>
+        <f t="shared" ref="N3:N10" si="7">I3/I$11</f>
         <v>6.9288622540761749E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O10" si="6">K3*F3/H3</f>
+        <f t="shared" ref="O3:O10" si="8">K3*F3/H3</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P10" si="7">L3*F3/J3</f>
+        <f t="shared" ref="P3:P10" si="9">L3*F3/J3</f>
         <v>0</v>
       </c>
     </row>
@@ -759,43 +5283,43 @@
         <v>147565</v>
       </c>
       <c r="F4">
+        <f t="shared" si="4"/>
+        <v>2.5344211716268487E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>61279</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>2.0747877015358351E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>86285.999999999985</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>3.0076052823930336E-2</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>2.5344211716268487E-2</v>
-      </c>
-      <c r="G4">
-        <f>B4*E4</f>
-        <v>61279</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="3"/>
-        <v>2.0747877015358351E-2</v>
-      </c>
-      <c r="I4">
-        <f>(1-B4)*E4</f>
-        <v>86285.999999999985</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
         <v>3.0076052823930336E-2</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
+      <c r="O4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
-        <v>3.0076052823930336E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="P4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -816,43 +5340,43 @@
         <v>546070</v>
       </c>
       <c r="F5">
+        <f t="shared" si="4"/>
+        <v>9.3787237433691814E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>233685</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>7.9121193889162958E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>312385</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>0.10888565655382657</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>9.3787237433691814E-2</v>
-      </c>
-      <c r="G5">
-        <f>B5*E5</f>
-        <v>233685</v>
-      </c>
-      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="3"/>
-        <v>7.9121193889162958E-2</v>
-      </c>
-      <c r="I5">
-        <f>(1-B5)*E5</f>
-        <v>312385</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
         <v>0.10888565655382657</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
+      <c r="O5">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
-        <v>0.10888565655382657</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="P5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.86133693272381573</v>
       </c>
     </row>
@@ -873,43 +5397,43 @@
         <v>741222</v>
       </c>
       <c r="F6">
+        <f t="shared" si="4"/>
+        <v>0.12730449155799792</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>351759</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0.1190987527708585</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>389462.99999999994</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>0.13575214705707045</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>0.12730449155799792</v>
-      </c>
-      <c r="G6">
-        <f>B6*E6</f>
-        <v>351759</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="3"/>
-        <v>0.1190987527708585</v>
-      </c>
-      <c r="I6">
-        <f>(1-B6)*E6</f>
-        <v>389462.99999999994</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
         <v>0.13575214705707045</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+      <c r="O6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
-        <v>0.13575214705707045</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="P6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.93777147778354342</v>
       </c>
     </row>
@@ -930,43 +5454,43 @@
         <v>713075</v>
       </c>
       <c r="F7">
+        <f t="shared" si="4"/>
+        <v>0.12247025900164776</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>395924</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.1340521623954167</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>317151</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>0.11054690481842167</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.12247025900164776</v>
-      </c>
-      <c r="G7">
-        <f>B7*E7</f>
-        <v>395924</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.1340521623954167</v>
-      </c>
-      <c r="I7">
-        <f>(1-B7)*E7</f>
-        <v>317151</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
         <v>0.11054690481842167</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="O7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0.11054690481842167</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="P7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9707208702522863</v>
       </c>
     </row>
@@ -987,43 +5511,43 @@
         <v>715209</v>
       </c>
       <c r="F8">
+        <f t="shared" si="4"/>
+        <v>0.12283677238763033</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>414258</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.14025969804710128</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>300951</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>0.10490019439323482</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.12283677238763033</v>
-      </c>
-      <c r="G8">
-        <f>B8*E8</f>
-        <v>414258</v>
-      </c>
-      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="3"/>
-        <v>0.14025969804710128</v>
-      </c>
-      <c r="I8">
-        <f>(1-B8)*E8</f>
-        <v>300951</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
         <v>0.10490019439323482</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>17.999999999999996</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
-        <v>0.10490019439323482</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.077767450924192</v>
       </c>
     </row>
@@ -1044,43 +5568,43 @@
         <v>823018</v>
       </c>
       <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.14135291185782442</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>560287</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.18970227597225942</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>262730.99999999994</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>9.1578140538256969E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.14135291185782442</v>
-      </c>
-      <c r="G9">
-        <f>B9*E9</f>
-        <v>560287</v>
-      </c>
-      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>0.18970227597225942</v>
-      </c>
-      <c r="I9">
-        <f>(1-B9)*E9</f>
-        <v>262730.99999999994</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
         <v>9.1578140538256969E-2</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>35.999999999999993</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>9.1578140538256969E-2</v>
-      </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2353908691927571</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55.566806630626665</v>
       </c>
     </row>
@@ -1101,23 +5625,23 @@
         <v>1017243</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17471095421605465</v>
       </c>
       <c r="G10">
-        <f>B10*E10</f>
+        <f t="shared" si="0"/>
         <v>838680</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28396072872012829</v>
       </c>
       <c r="I10">
-        <f>(1-B10)*E10</f>
+        <f t="shared" si="1"/>
         <v>178562.99999999997</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.2240342818064023E-2</v>
       </c>
       <c r="K10">
@@ -1129,15 +5653,15 @@
         <v>88</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2240342818064023E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29.53269573637413</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>247.01926877161489</v>
       </c>
     </row>
@@ -1159,7 +5683,7 @@
         <v>5822434</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G11">
@@ -1167,7 +5691,7 @@
         <v>2953507</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I11">
@@ -1175,7 +5699,7 @@
         <v>2868927</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K11">
@@ -1219,5 +5743,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>